--- a/bh3/553473563358751922_2021-07-31_12-00-06.xlsx
+++ b/bh3/553473563358751922_2021-07-31_12-00-06.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5148171058</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:14:07</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44421.75980324074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>5123794101</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-10 22:29:40</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44418.93726851852</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -682,10 +694,8 @@
           <t>5092835626</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-07 12:19:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44415.51381944444</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -753,10 +763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-07 11:28:38</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44415.47821759259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>5088870243</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-06 22:12:28</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44414.92532407407</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-05 15:36:28</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44413.65032407407</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -974,10 +978,8 @@
           <t>5046049551</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-04 18:28:25</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44412.7697337963</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1038,10 +1040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-04 16:20:35</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44412.68096064815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1106,10 +1106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-04 16:20:24</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44412.68083333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1173,10 +1171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-04 14:37:37</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44412.60945601852</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1249,10 +1245,8 @@
           <t>5068063535</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:52:46</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44412.57831018518</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1328,10 +1322,8 @@
           <t>5068063535</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:51:48</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44412.57763888889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1407,10 +1399,8 @@
           <t>5068063535</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:49:44</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44412.57620370371</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1486,10 +1476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:47:41</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44412.57478009259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1565,10 +1553,8 @@
           <t>5068063535</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:47:15</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44412.57447916667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1644,10 +1630,8 @@
           <t>5068063535</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-04 13:46:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44412.57413194444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1723,10 +1707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-04 11:32:12</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44412.48069444444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1790,10 +1772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-03 20:49:20</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44411.86759259259</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-03 18:56:31</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44411.78924768518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>5056754481</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-03 01:14:04</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44411.05143518518</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2005,10 +1981,8 @@
           <t>5054172215</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-02 19:42:35</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44410.82123842592</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2073,10 +2047,8 @@
           <t>5054039908</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-02 19:27:02</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44410.81043981481</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2145,10 +2117,8 @@
           <t>5053986469</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-02 19:19:44</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44410.80537037037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>5040986661</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-02 18:08:07</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44410.75563657407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>5040986661</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-02 17:55:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44410.74686342593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2373,10 +2339,8 @@
           <t>5052162356</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-02 15:05:11</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44410.62859953703</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2445,10 +2409,8 @@
           <t>5051354381</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-02 12:59:59</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44410.54165509259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2512,10 +2474,8 @@
           <t>5051306547</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-02 12:53:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44410.53728009259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2587,10 +2547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-02 10:25:57</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44410.4346875</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2658,10 +2616,8 @@
           <t>5049740557</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-02 08:44:24</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44410.36416666667</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2737,10 +2693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-02 07:45:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44410.32334490741</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2808,10 +2762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-02 02:44:46</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44410.1144212963</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2875,10 +2827,8 @@
           <t>5048726765</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-02 01:01:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44410.04295138889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2950,10 +2900,8 @@
           <t>5046241689</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-02 00:53:51</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44410.03739583334</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3021,10 +2969,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-01 21:39:35</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44409.90248842593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3092,10 +3038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-01 20:24:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44409.85028935185</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3171,10 +3115,8 @@
           <t>5046241689</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-01 20:00:39</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44409.83378472222</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3250,10 +3192,8 @@
           <t>5046241689</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:53:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44409.82853009259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3321,10 +3261,8 @@
           <t>5046241689</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:51:04</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44409.82712962963</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3400,10 +3338,8 @@
           <t>5046049551</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:27:12</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44409.81055555555</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3471,10 +3407,8 @@
           <t>5046050867</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:26:29</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44409.81005787037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3542,10 +3476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-01 19:20:16</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44409.80574074074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3613,10 +3545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-01 18:32:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44409.7728125</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3692,10 +3622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-01 17:15:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44409.71931712963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3771,10 +3699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:50:51</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44409.70197916667</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3842,10 +3768,8 @@
           <t>5035705851</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-01 16:00:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44409.66715277778</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3913,10 +3837,8 @@
           <t>5044099766</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:44:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44409.61454861111</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3988,10 +3910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:09:59</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44409.5902662037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4056,10 +3976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:31:04</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44409.56324074074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4137,10 +4055,8 @@
           <t>5043575805</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:30:44</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44409.56300925926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4208,10 +4124,8 @@
           <t>5043583765</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:27:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44409.56050925926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4289,10 +4203,8 @@
           <t>5043582004</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:26:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44409.56002314815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4370,10 +4282,8 @@
           <t>5043575805</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:25:29</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44409.55936342593</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4451,10 +4361,8 @@
           <t>5043033672</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:16:09</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44409.51121527778</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4532,10 +4440,8 @@
           <t>5043022588</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:14:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44409.50972222222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4606,10 +4512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-01 12:02:01</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44409.50140046296</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4677,10 +4581,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-01 11:44:26</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44409.48918981481</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4756,10 +4658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-01 11:38:13</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44409.48487268519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4827,10 +4727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-01 10:45:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44409.44818287037</v>
       </c>
       <c r="I60" t="n">
         <v>20</v>
@@ -4906,10 +4804,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-01 10:27:26</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44409.43571759259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4969,10 +4865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-01 08:34:10</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44409.35706018518</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5032,10 +4926,8 @@
           <t>5040986661</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-01 07:15:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44409.30228009259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5107,10 +4999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-01 06:58:25</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44409.29056712963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5178,10 +5068,8 @@
           <t>5041195392</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-01 04:55:51</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44409.20545138889</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5249,10 +5137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-01 04:37:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44409.1928587963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5316,10 +5202,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-01 03:09:16</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44409.13143518518</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5398,10 +5282,8 @@
           <t>5040984484</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-01 02:48:25</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44409.11695601852</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5461,10 +5343,8 @@
           <t>5040986661</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-01 02:46:04</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44409.11532407408</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5540,10 +5420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-01 00:06:12</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44409.00430555556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5611,10 +5489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-31 22:16:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44408.92809027778</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5686,10 +5562,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-31 21:24:27</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44408.89197916666</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5765,10 +5639,8 @@
           <t>5038465781</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-31 20:50:35</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44408.86846064815</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5844,10 +5716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-31 20:23:54</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44408.84993055555</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5923,10 +5793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-31 20:10:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44408.84082175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5990,10 +5858,8 @@
           <t>5038104175</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-31 20:05:20</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44408.83703703704</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6073,10 +5939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:56:52</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44408.83115740741</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6152,10 +6016,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:19:06</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44408.80493055555</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6219,10 +6081,8 @@
           <t>5037715651</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:15:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44408.80245370371</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6290,10 +6150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:06:55</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44408.79646990741</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6365,10 +6223,8 @@
           <t>5037292884</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:23:42</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44408.76645833333</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6436,10 +6292,8 @@
           <t>5037210652</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:13:26</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44408.7593287037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6515,10 +6369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:07:51</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44408.75545138889</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6586,10 +6438,8 @@
           <t>5035705851</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:58:22</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44408.74886574074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6653,10 +6503,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:49:08</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44408.7424537037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6720,10 +6568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:49:06</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44408.74243055555</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6799,10 +6645,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:47:17</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44408.74116898148</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6862,10 +6706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:40:01</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44408.73612268519</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6933,10 +6775,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:30:27</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44408.72947916666</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7004,10 +6844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:09:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44408.71462962963</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7071,10 +6909,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-31 17:09:04</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44408.71462962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7138,10 +6974,8 @@
           <t>5034636637</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-31 16:36:50</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44408.69224537037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7217,10 +7051,8 @@
           <t>5036383029</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-31 16:22:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44408.6821412037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7296,10 +7128,8 @@
           <t>5034764111</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-31 16:16:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44408.67790509259</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7375,10 +7205,8 @@
           <t>5034610889</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-31 16:15:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44408.6775462963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7454,10 +7282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:58:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44408.66546296296</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7533,10 +7359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:44:25</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44408.65584490741</v>
       </c>
       <c r="I97" t="n">
         <v>18</v>
@@ -7612,10 +7436,8 @@
           <t>5036097528</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:38:26</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44408.65168981482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7683,10 +7505,8 @@
           <t>5036012713</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:24:24</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44408.64194444445</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7754,10 +7574,8 @@
           <t>5035956242</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:15:38</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44408.63585648148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7821,10 +7639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:03:40</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44408.62754629629</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7892,10 +7708,8 @@
           <t>5035863741</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:02:02</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44408.62641203704</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7967,10 +7781,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-31 15:00:42</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44408.62548611111</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8038,10 +7850,8 @@
           <t>5035847608</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:59:19</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44408.62452546296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8113,10 +7923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:54:18</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44408.62104166667</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8184,10 +7992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:48:57</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44408.61732638889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8263,10 +8069,8 @@
           <t>5035749567</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:43:34</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44408.61358796297</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8330,10 +8134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:40:54</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44408.61173611111</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8409,10 +8211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:39:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44408.61065972222</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8480,10 +8280,8 @@
           <t>5035705851</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:37:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44408.60936342592</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8559,10 +8357,8 @@
           <t>5035705851</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:35:26</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44408.60793981481</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8626,10 +8422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:35:00</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44408.60763888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8705,10 +8499,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:34:46</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44408.60747685185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8768,10 +8560,8 @@
           <t>5035699260</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:34:41</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44408.60741898148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8847,10 +8637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:26:45</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44408.60190972222</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8918,10 +8706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:16:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44408.59491898148</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8989,10 +8775,8 @@
           <t>5035572154</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:13:22</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44408.59261574074</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9056,10 +8840,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:12:18</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44408.591875</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9123,10 +8905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:12:01</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44408.59167824074</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9194,10 +8974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:11:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44408.59146990741</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9269,10 +9047,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:08:54</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44408.58951388889</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9336,10 +9112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:08:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44408.58902777778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9411,10 +9185,8 @@
           <t>5034939917</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:06:05</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44408.58755787037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9478,10 +9250,8 @@
           <t>5034615183</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:03:32</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44408.58578703704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9557,10 +9327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:00:25</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44408.58362268518</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9636,10 +9404,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:56:31</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44408.58091435185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9711,10 +9477,8 @@
           <t>5035453557</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:56:12</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44408.58069444444</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9790,10 +9554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:54:46</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44408.57969907407</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9865,10 +9627,8 @@
           <t>5034870767</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:53:12</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44408.57861111111</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9937,10 +9697,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:49:20</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44408.57592592593</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10018,10 +9776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:47:22</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44408.57456018519</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10089,10 +9845,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:46:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44408.57422453703</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10169,10 +9923,8 @@
           <t>5035369309</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:43:38</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44408.57196759259</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10240,10 +9992,8 @@
           <t>5035334896</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:38:42</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44408.56854166667</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10307,10 +10057,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:38:23</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44408.56832175926</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10370,10 +10118,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:38:08</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44408.56814814815</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10437,10 +10183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:36:24</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44408.56694444444</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10504,10 +10248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:34:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44408.56585648148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10583,10 +10325,8 @@
           <t>5035304488</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:33:53</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44408.56519675926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10658,10 +10398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:33:52</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44408.56518518519</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10737,10 +10475,8 @@
           <t>5034934127</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:33:17</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44408.56478009259</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10804,10 +10540,8 @@
           <t>5034615183</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:31:31</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44408.56355324074</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10871,10 +10605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:31:13</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44408.56334490741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10946,10 +10678,8 @@
           <t>5035285445</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:29:52</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44408.56240740741</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11017,10 +10747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:28:55</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44408.56174768518</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11092,10 +10820,8 @@
           <t>5034934127</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:28:50</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44408.56168981481</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11159,10 +10885,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:27:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44408.56106481481</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11238,10 +10962,8 @@
           <t>5034934127</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:27:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44408.56101851852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11309,10 +11031,8 @@
           <t>5035266062</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:27:51</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44408.56100694444</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11376,10 +11096,8 @@
           <t>5035270057</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:27:44</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44408.56092592593</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11443,10 +11161,8 @@
           <t>5035247809</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:25:28</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44408.55935185185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11514,10 +11230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:24:40</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44408.5587962963</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11593,10 +11307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:22:25</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44408.55723379629</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11673,10 +11385,8 @@
           <t>5035194865</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:18:24</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44408.55444444445</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11748,10 +11458,8 @@
           <t>5035195931</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:18:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44408.55439814815</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11823,10 +11531,8 @@
           <t>5035154235</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:13:30</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44408.55104166667</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11894,10 +11600,8 @@
           <t>5035157747</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:13:06</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44408.55076388889</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11973,10 +11677,8 @@
           <t>5035144273</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:11:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44408.5497337963</v>
       </c>
       <c r="I158" t="n">
         <v>4</v>
@@ -12053,10 +11755,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:10:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44408.54928240741</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12132,10 +11832,8 @@
           <t>5035134072</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:10:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44408.54863425926</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12211,10 +11909,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:09:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44408.54798611111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12290,10 +11986,8 @@
           <t>5035130855</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:08:48</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44408.54777777778</v>
       </c>
       <c r="I162" t="n">
         <v>21</v>
@@ -12357,10 +12051,8 @@
           <t>5035119434</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:08:16</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44408.54740740741</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12437,10 +12129,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:08:05</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44408.54728009259</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12516,10 +12206,8 @@
           <t>5035120817</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:07:58</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44408.54719907408</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12596,10 +12284,8 @@
           <t>5034615183</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:07:51</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44408.54711805555</v>
       </c>
       <c r="I166" t="n">
         <v>14</v>
@@ -12667,10 +12353,8 @@
           <t>5035120470</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:07:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44408.54709490741</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12734,10 +12418,8 @@
           <t>5035086762</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:03:28</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44408.54407407407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12801,10 +12483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:02:21</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44408.54329861111</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12876,10 +12556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:02:12</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44408.54319444444</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12947,10 +12625,8 @@
           <t>5035073171</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:02:10</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44408.5431712963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13010,10 +12686,8 @@
           <t>5035069601</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:01:26</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44408.54266203703</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13085,10 +12759,8 @@
           <t>5035070815</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:01:19</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44408.54258101852</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13160,10 +12832,8 @@
           <t>5035063919</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:00:37</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44408.54209490741</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13231,10 +12901,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:58:54</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44408.54090277778</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13298,10 +12966,8 @@
           <t>5035048775</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:58:48</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44408.54083333333</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13377,10 +13043,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:56:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44408.53951388889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13456,10 +13120,8 @@
           <t>5035037358</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:56:39</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44408.53934027778</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13519,10 +13181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:55:10</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44408.53831018518</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13594,10 +13254,8 @@
           <t>5035023149</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:55:04</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44408.53824074074</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13665,10 +13323,8 @@
           <t>5034939917</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:54:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44408.53805555555</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13740,10 +13396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:53:55</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44408.53744212963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13822,10 +13476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:53:49</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44408.53737268518</v>
       </c>
       <c r="I183" t="n">
         <v>4</v>
@@ -13889,10 +13541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:53:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44408.53689814815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13968,10 +13618,8 @@
           <t>5035002425</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:52:49</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44408.53667824074</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -14039,10 +13687,8 @@
           <t>5034997824</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:52:05</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44408.53616898148</v>
       </c>
       <c r="I186" t="n">
         <v>8</v>
@@ -14118,10 +13764,8 @@
           <t>5034993303</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:51:35</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44408.53582175926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14189,10 +13833,8 @@
           <t>5034987918</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:51:04</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44408.53546296297</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14268,10 +13910,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:50:41</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44408.53519675926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14343,10 +13983,8 @@
           <t>5034978738</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44408.53471064815</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14418,10 +14056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:45</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44408.53454861111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14485,10 +14121,8 @@
           <t>5034981977</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:43</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44408.53452546296</v>
       </c>
       <c r="I192" t="n">
         <v>7</v>
@@ -14556,10 +14190,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:32</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44408.53439814815</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14623,10 +14255,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:27</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44408.53434027778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14735,10 +14365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:20</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44408.53425925926</v>
       </c>
       <c r="I195" t="n">
         <v>5</v>
@@ -14802,10 +14430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:49:16</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44408.53421296296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14877,10 +14503,8 @@
           <t>5034971136</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:48:27</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44408.53364583333</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14952,10 +14576,8 @@
           <t>5034963589</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:48:22</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44408.53358796296</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -15023,10 +14645,8 @@
           <t>5034965065</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:46:58</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44408.53261574074</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -15090,10 +14710,8 @@
           <t>5034939917</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:45:09</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44408.53135416667</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15157,10 +14775,8 @@
           <t>5034934127</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:44:35</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44408.53096064815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15224,10 +14840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:42:37</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44408.52959490741</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15299,10 +14913,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:40:59</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44408.52846064815</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15370,10 +14982,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:39:22</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44408.52733796297</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15449,10 +15059,8 @@
           <t>5034891282</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:38:28</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44408.52671296296</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15520,10 +15128,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:38:25</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44408.52667824074</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15596,10 +15202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:38:12</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44408.52652777778</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15675,10 +15279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:38:01</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44408.52640046296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15746,10 +15348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:37:37</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44408.52612268519</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15817,10 +15417,8 @@
           <t>5034882649</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:37:24</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44408.52597222223</v>
       </c>
       <c r="I210" t="n">
         <v>6</v>
@@ -15888,10 +15486,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:36:25</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44408.52528935186</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15963,10 +15559,8 @@
           <t>5034869540</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:35:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44408.52498842592</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -16042,10 +15636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:35:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44408.52494212963</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16122,10 +15714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:35:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44408.52487268519</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16193,10 +15783,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:35:19</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44408.52452546296</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16260,10 +15848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:35:00</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44408.52430555555</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16327,10 +15913,8 @@
           <t>5034866582</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:34:58</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44408.52428240741</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16398,10 +15982,8 @@
           <t>5034870767</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:34:58</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44408.52428240741</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16477,10 +16059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:33:39</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44408.52336805555</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16548,10 +16128,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:32:45</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44408.52274305555</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16623,10 +16201,8 @@
           <t>5034829036</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:32:25</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44408.52251157408</v>
       </c>
       <c r="I221" t="n">
         <v>4</v>
@@ -16694,10 +16270,8 @@
           <t>5034834561</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:32:19</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44408.52244212963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16761,10 +16335,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:32:16</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44408.52240740741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16840,10 +16412,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:31:44</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44408.52203703704</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16919,10 +16489,8 @@
           <t>5034831273</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:31:35</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44408.52193287037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16998,10 +16566,8 @@
           <t>5034831951</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:31:19</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44408.52174768518</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17073,10 +16639,8 @@
           <t>5034831273</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:31:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44408.52157407408</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17152,10 +16716,8 @@
           <t>5034707000</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:30:47</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44408.52137731481</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17233,10 +16795,8 @@
           <t>5034830277</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:30:41</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44408.52130787037</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17308,10 +16868,8 @@
           <t>5034829036</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:30:31</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44408.52119212963</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17379,10 +16937,8 @@
           <t>5034823292</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:29:55</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44408.52077546297</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17458,10 +17014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:29:44</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44408.52064814815</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17537,10 +17091,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:29:44</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44408.52064814815</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17604,10 +17156,8 @@
           <t>5034701095</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:29:12</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44408.52027777778</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17675,10 +17225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:29:04</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44408.52018518518</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17750,10 +17298,8 @@
           <t>5034815623</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:28:54</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44408.52006944444</v>
       </c>
       <c r="I236" t="n">
         <v>4</v>
@@ -17825,10 +17371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:28:38</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44408.51988425926</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17896,10 +17440,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:28:12</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44408.51958333333</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17959,10 +17501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:27:30</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44408.51909722222</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18030,10 +17570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:27:28</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44408.51907407407</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18109,10 +17647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:27:20</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44408.51898148148</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18188,10 +17724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:50</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44408.51863425926</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18263,10 +17797,8 @@
           <t>5034798283</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:47</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44408.51859953703</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18342,10 +17874,8 @@
           <t>5034794984</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:46</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44408.51858796296</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18405,10 +17935,8 @@
           <t>5034798160</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:45</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44408.51857638889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18479,10 +18007,8 @@
           <t>5034797593</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44408.5184375</v>
       </c>
       <c r="I246" t="n">
         <v>7</v>
@@ -18546,10 +18072,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:26:33</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44408.5184375</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18625,10 +18149,8 @@
           <t>5034791054</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:25:15</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44408.51753472222</v>
       </c>
       <c r="I248" t="n">
         <v>5</v>
@@ -18696,10 +18218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:25:04</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44408.51740740741</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18763,10 +18283,8 @@
           <t>5034701095</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:24:48</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44408.51722222222</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -18843,10 +18361,8 @@
           <t>5034779874</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:24:47</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44408.51721064815</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18918,10 +18434,8 @@
           <t>5034779674</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:24:43</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44408.51716435186</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18989,10 +18503,8 @@
           <t>5034781842</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:24:33</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44408.51704861111</v>
       </c>
       <c r="I253" t="n">
         <v>6</v>
@@ -19068,10 +18580,8 @@
           <t>5034773486</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:23:59</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44408.51665509259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19147,10 +18657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:23:30</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44408.51631944445</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19226,10 +18734,8 @@
           <t>5034764787</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:22:51</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44408.51586805555</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19297,10 +18803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:22:41</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44408.51575231482</v>
       </c>
       <c r="I257" t="n">
         <v>2</v>
@@ -19376,10 +18880,8 @@
           <t>5034764111</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:22:36</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44408.51569444445</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19455,10 +18957,8 @@
           <t>5034766139</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:22:34</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44408.5156712963</v>
       </c>
       <c r="I259" t="n">
         <v>10</v>
@@ -19530,10 +19030,8 @@
           <t>5034687162</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:22:22</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44408.51553240741</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19609,10 +19107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:21:42</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44408.51506944445</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19684,10 +19180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:21:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44408.51479166667</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19755,10 +19249,8 @@
           <t>5034760460</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:21:13</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44408.5147337963</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19830,10 +19322,8 @@
           <t>5034751688</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:21:01</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44408.51459490741</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19901,10 +19391,8 @@
           <t>5034748865</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:20:35</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44408.51429398148</v>
       </c>
       <c r="I265" t="n">
         <v>8</v>
@@ -19976,10 +19464,8 @@
           <t>5034737109</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:19:22</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44408.51344907407</v>
       </c>
       <c r="I266" t="n">
         <v>18</v>
@@ -20043,10 +19529,8 @@
           <t>5034707000</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:19:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44408.51329861111</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20122,10 +19606,8 @@
           <t>5034733751</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:18:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44408.51295138889</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20197,10 +19679,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:18:12</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44408.51263888889</v>
       </c>
       <c r="I269" t="n">
         <v>2</v>
@@ -20276,10 +19756,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:18:11</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44408.51262731481</v>
       </c>
       <c r="I270" t="n">
         <v>7</v>
@@ -20343,10 +19821,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:17:15</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44408.51197916667</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20422,10 +19898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:17:04</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44408.51185185185</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20497,10 +19971,8 @@
           <t>5034708047</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:17:02</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44408.5118287037</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20580,10 +20052,8 @@
           <t>5034720488</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:16:40</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44408.51157407407</v>
       </c>
       <c r="I274" t="n">
         <v>77</v>
@@ -20659,10 +20129,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:16:39</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44408.5115625</v>
       </c>
       <c r="I275" t="n">
         <v>4</v>
@@ -20741,10 +20209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:16:05</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44408.51116898148</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20812,10 +20278,8 @@
           <t>5034711450</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:42</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44408.51090277778</v>
       </c>
       <c r="I277" t="n">
         <v>11</v>
@@ -20879,10 +20343,8 @@
           <t>5034708047</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44408.51087962963</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20950,10 +20412,8 @@
           <t>5034701095</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:26</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44408.5107175926</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -21021,10 +20481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:22</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44408.5106712963</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21100,10 +20558,8 @@
           <t>5034710344</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:19</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44408.51063657407</v>
       </c>
       <c r="I281" t="n">
         <v>4</v>
@@ -21175,10 +20631,8 @@
           <t>5034707000</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:15:14</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44408.5105787037</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21256,10 +20710,8 @@
           <t>5034703139</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:14:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44408.51010416666</v>
       </c>
       <c r="I283" t="n">
         <v>5</v>
@@ -21331,10 +20783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:14:27</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44408.51003472223</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21410,10 +20860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:14:21</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44408.50996527778</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21485,10 +20933,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:14:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44408.50996527778</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21560,10 +21006,8 @@
           <t>5034701533</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:14:00</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44408.50972222222</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21639,10 +21083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:59</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44408.50971064815</v>
       </c>
       <c r="I288" t="n">
         <v>203</v>
@@ -21710,10 +21152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:55</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44408.50966435186</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21785,10 +21225,8 @@
           <t>5034701095</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:51</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44408.50961805556</v>
       </c>
       <c r="I290" t="n">
         <v>27</v>
@@ -21865,10 +21303,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:48</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44408.50958333333</v>
       </c>
       <c r="I291" t="n">
         <v>4</v>
@@ -21944,10 +21380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:36</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44408.50944444445</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -22019,10 +21453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:31</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44408.50938657407</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22098,10 +21530,8 @@
           <t>5034692796</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:28</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44408.50935185186</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22177,10 +21607,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:24</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44408.50930555556</v>
       </c>
       <c r="I295" t="n">
         <v>29</v>
@@ -22248,10 +21676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:22</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44408.50928240741</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22319,10 +21745,8 @@
           <t>5034684624</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:13</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44408.50917824074</v>
       </c>
       <c r="I297" t="n">
         <v>12</v>
@@ -22390,10 +21814,8 @@
           <t>5034687162</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44408.50909722222</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22469,10 +21891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:13:04</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44408.50907407407</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22548,10 +21968,8 @@
           <t>5034683192</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:39</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44408.50878472222</v>
       </c>
       <c r="I300" t="n">
         <v>12</v>
@@ -22629,10 +22047,8 @@
           <t>5034687162</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:29</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44408.50866898148</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22708,10 +22124,8 @@
           <t>5034686938</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:24</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44408.50861111111</v>
       </c>
       <c r="I302" t="n">
         <v>4</v>
@@ -22787,10 +22201,8 @@
           <t>5034679805</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:17</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44408.50853009259</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22854,10 +22266,8 @@
           <t>5034679427</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:08</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44408.50842592592</v>
       </c>
       <c r="I304" t="n">
         <v>30</v>
@@ -22929,10 +22339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:04</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44408.50837962963</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22996,10 +22404,8 @@
           <t>5034681663</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:12:04</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44408.50837962963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23071,10 +22477,8 @@
           <t>5034677744</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:11:28</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44408.50796296296</v>
       </c>
       <c r="I307" t="n">
         <v>73</v>
@@ -23150,10 +22554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:11:05</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44408.50769675926</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23221,10 +22623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:11:04</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44408.50768518518</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23300,10 +22700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:11:03</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44408.50767361111</v>
       </c>
       <c r="I310" t="n">
         <v>22</v>
@@ -23379,10 +22777,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:11:01</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44408.50765046296</v>
       </c>
       <c r="I311" t="n">
         <v>14</v>
@@ -23442,10 +22838,8 @@
           <t>5034676396</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44408.50758101852</v>
       </c>
       <c r="I312" t="n">
         <v>73</v>
@@ -23509,10 +22903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:51</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44408.50753472222</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23580,10 +22972,8 @@
           <t>5034676094</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:48</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44408.5075</v>
       </c>
       <c r="I314" t="n">
         <v>4</v>
@@ -23651,10 +23041,8 @@
           <t>5034671154</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:21</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44408.5071875</v>
       </c>
       <c r="I315" t="n">
         <v>38</v>
@@ -23722,10 +23110,8 @@
           <t>5034666525</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:08</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44408.50703703704</v>
       </c>
       <c r="I316" t="n">
         <v>7</v>
@@ -23797,10 +23183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:10:01</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44408.50695601852</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23872,10 +23256,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:09:45</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44408.50677083333</v>
       </c>
       <c r="I318" t="n">
         <v>53</v>
@@ -23951,10 +23333,8 @@
           <t>5034665482</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:09:43</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44408.50674768518</v>
       </c>
       <c r="I319" t="n">
         <v>59</v>
@@ -24022,10 +23402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:09:25</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44408.50653935185</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24093,10 +23471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:09:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44408.50640046296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24172,10 +23548,8 @@
           <t>5034652717</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:08:41</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44408.50603009259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24253,10 +23627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:08:34</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44408.50594907408</v>
       </c>
       <c r="I323" t="n">
         <v>13</v>
@@ -24332,10 +23704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:08:33</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44408.5059375</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24399,10 +23769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:08:25</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44408.50584490741</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24474,10 +23842,8 @@
           <t>5034644094</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:57</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44408.50552083334</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24549,10 +23915,8 @@
           <t>5034643986</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:54</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44408.50548611111</v>
       </c>
       <c r="I327" t="n">
         <v>381</v>
@@ -24620,10 +23984,8 @@
           <t>5034650620</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:52</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44408.50546296296</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24687,10 +24049,8 @@
           <t>5034643779</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:49</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44408.50542824074</v>
       </c>
       <c r="I329" t="n">
         <v>40</v>
@@ -24766,10 +24126,8 @@
           <t>5034648000</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:30</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44408.50520833334</v>
       </c>
       <c r="I330" t="n">
         <v>31</v>
@@ -24852,10 +24210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:13</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44408.50501157407</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24923,10 +24279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:12</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44408.505</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24994,10 +24348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:10</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44408.50497685185</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25073,10 +24425,8 @@
           <t>5034646931</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:07:08</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44408.5049537037</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -25140,10 +24490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:47</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44408.50471064815</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25207,10 +24555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:40</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44408.50462962963</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25286,10 +24632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:39</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44408.50461805556</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25357,10 +24701,8 @@
           <t>5034636637</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:21</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44408.50440972222</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25428,10 +24770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:19</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44408.50438657407</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25500,10 +24840,8 @@
           <t>5034634306</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:13</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44408.50431712963</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25579,10 +24917,8 @@
           <t>5034635828</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:03</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44408.50420138889</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25658,10 +24994,8 @@
           <t>5034633728</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:06:02</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44408.50418981481</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25741,10 +25075,8 @@
           <t>5034633150</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:05:50</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44408.50405092593</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25820,10 +25152,8 @@
           <t>5034628856</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:05:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44408.50405092593</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25887,10 +25217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:05:41</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44408.50394675926</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25954,10 +25282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:05:13</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44408.50362268519</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26029,10 +25355,8 @@
           <t>5034623468</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:05:10</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44408.50358796296</v>
       </c>
       <c r="I347" t="n">
         <v>6</v>
@@ -26109,10 +25433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:04:27</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44408.50309027778</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26188,10 +25510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:04:21</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44408.50302083333</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26263,10 +25583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:04:16</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44408.50296296296</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26330,10 +25648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:48</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44408.50263888889</v>
       </c>
       <c r="I351" t="n">
         <v>77</v>
@@ -26401,10 +25717,8 @@
           <t>5034613908</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:48</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44408.50263888889</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26480,10 +25794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:43</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44408.50258101852</v>
       </c>
       <c r="I353" t="n">
         <v>4</v>
@@ -26560,10 +25872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:43</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44408.50258101852</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26639,10 +25949,8 @@
           <t>5034609182</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:33</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44408.50246527778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26718,10 +26026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:24</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44408.50236111111</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26797,10 +26103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44408.50236111111</v>
       </c>
       <c r="I357" t="n">
         <v>703</v>
@@ -26876,10 +26180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:20</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44408.50231481482</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26943,10 +26245,8 @@
           <t>5034612672</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44408.50229166666</v>
       </c>
       <c r="I359" t="n">
         <v>5</v>
@@ -27010,10 +26310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:17</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44408.50228009259</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -27090,10 +26388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:16</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44408.50226851852</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -27157,10 +26453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:10</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44408.50219907407</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27228,10 +26522,8 @@
           <t>5034615421</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:09</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44408.5021875</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27295,10 +26587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:05</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44408.5021412037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27371,10 +26661,8 @@
           <t>5034615183</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:03:04</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44408.50212962963</v>
       </c>
       <c r="I365" t="n">
         <v>96</v>
@@ -27450,10 +26738,8 @@
           <t>5034611913</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:59</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44408.50207175926</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27526,10 +26812,8 @@
           <t>5034604669</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:53</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44408.50200231482</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27597,10 +26881,8 @@
           <t>5034607199</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:48</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44408.50194444445</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27676,10 +26958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:45</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44408.50190972222</v>
       </c>
       <c r="I369" t="n">
         <v>26</v>
@@ -27748,10 +27028,8 @@
           <t>5034607091</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:45</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44408.50190972222</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27824,10 +27102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:43</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44408.50188657407</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27887,10 +27163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:43</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44408.50188657407</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27958,10 +27232,8 @@
           <t>5034611154</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:41</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44408.50186342592</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -28037,10 +27309,8 @@
           <t>5034611088</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:39</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44408.50184027778</v>
       </c>
       <c r="I374" t="n">
         <v>7</v>
@@ -28108,10 +27378,8 @@
           <t>5034610889</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:35</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44408.50179398148</v>
       </c>
       <c r="I375" t="n">
         <v>105</v>
@@ -28179,10 +27447,8 @@
           <t>5034606531</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:33</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44408.50177083333</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -28246,10 +27512,8 @@
           <t>5034606395</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:30</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44408.50173611111</v>
       </c>
       <c r="I377" t="n">
         <v>6</v>
@@ -28317,10 +27581,8 @@
           <t>5034606410</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44408.50173611111</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28396,10 +27658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:26</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44408.50168981482</v>
       </c>
       <c r="I379" t="n">
         <v>1547</v>
@@ -28467,10 +27727,8 @@
           <t>5034603358</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:26</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44408.50168981482</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -28538,10 +27796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:18</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44408.50159722222</v>
       </c>
       <c r="I381" t="n">
         <v>5</v>
@@ -28617,10 +27873,8 @@
           <t>5034605736</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:16</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44408.50157407407</v>
       </c>
       <c r="I382" t="n">
         <v>7</v>
@@ -28696,10 +27950,8 @@
           <t>5034599966</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:14</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44408.50155092592</v>
       </c>
       <c r="I383" t="n">
         <v>7</v>
@@ -28759,10 +28011,8 @@
           <t>5034599950</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:13</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44408.50153935186</v>
       </c>
       <c r="I384" t="n">
         <v>7</v>
@@ -28830,10 +28080,8 @@
           <t>5034602654</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:11</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44408.5015162037</v>
       </c>
       <c r="I385" t="n">
         <v>10</v>
@@ -28901,10 +28149,8 @@
           <t>5034605400</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:09</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44408.50149305556</v>
       </c>
       <c r="I386" t="n">
         <v>9</v>
@@ -28968,10 +28214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:05</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44408.50144675926</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -29036,10 +28280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:04</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44408.50143518519</v>
       </c>
       <c r="I388" t="n">
         <v>279</v>
@@ -29115,10 +28357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:02:01</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44408.50140046296</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29186,10 +28426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:51</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44408.50128472222</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -29265,10 +28503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:39</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44408.50114583333</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29333,10 +28569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:38</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44408.50113425926</v>
       </c>
       <c r="I392" t="n">
         <v>4</v>
@@ -29404,10 +28638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:35</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44408.50109953704</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29479,10 +28711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:32</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44408.50106481482</v>
       </c>
       <c r="I394" t="n">
         <v>2505</v>
@@ -29550,10 +28780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:30</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44408.50104166667</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29625,10 +28853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:26</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44408.50099537037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29700,10 +28926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:26</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44408.50099537037</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29771,10 +28995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:23</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44408.50096064815</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29850,10 +29072,8 @@
           <t>5034593137</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:22</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44408.50094907408</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29925,10 +29145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:17</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44408.5008912037</v>
       </c>
       <c r="I400" t="n">
         <v>377</v>
@@ -30000,10 +29218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:14</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44408.50085648148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30079,10 +29295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44408.50081018519</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -30158,10 +29372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:08</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44408.50078703704</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -30237,10 +29449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:07</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44408.50077546296</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30308,10 +29518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:04</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44408.50074074074</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30379,10 +29587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:01:04</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44408.50074074074</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -30459,10 +29665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:51</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44408.50059027778</v>
       </c>
       <c r="I407" t="n">
         <v>7</v>
@@ -30530,10 +29734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:50</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44408.5005787037</v>
       </c>
       <c r="I408" t="n">
         <v>198</v>
@@ -30601,10 +29803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:49</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44408.50056712963</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -30676,10 +29876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:44</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44408.50050925926</v>
       </c>
       <c r="I410" t="n">
         <v>18</v>
@@ -30747,10 +29945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:42</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44408.50048611111</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30822,10 +30018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:40</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44408.50046296296</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30897,10 +30091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:39</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44408.50045138889</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30968,10 +30160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:38</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44408.50043981482</v>
       </c>
       <c r="I414" t="n">
         <v>4</v>
@@ -31043,10 +30233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:34</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44408.50039351852</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31110,10 +30298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:32</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44408.50037037037</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31185,10 +30371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:30</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44408.50034722222</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -31256,10 +30440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:29</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44408.50033564815</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31327,10 +30509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:27</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44408.5003125</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31402,10 +30582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-31 12:00:27</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44408.5003125</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
